--- a/results/140418-W05.2-1405-2014-Paganello-Co-op.xlsx
+++ b/results/140418-W05.2-1405-2014-Paganello-Co-op.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0baef4825c0f17ed/Dokumente/Frisbee/Rankings/Turniere-berechnet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FpaExcelResultsParser\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE40FF8F-DA84-41A4-AAE8-B14ECEEBA4B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18285" windowHeight="12165"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18285" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="W05" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_FilterDatabase" localSheetId="0" hidden="1">'W05'!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'W05'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,14 +28,14 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>HannemanK001</author>
     <author>Kolja Hannemann</author>
     <author>Kolja</author>
   </authors>
   <commentList>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -47,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -61,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0">
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -75,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="0" shapeId="0">
+    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -89,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="0" shapeId="0">
+    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -102,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0" shapeId="0">
+    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -116,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="0" shapeId="0">
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -129,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L8" authorId="0" shapeId="0">
+    <comment ref="L8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -143,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0" shapeId="0">
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -157,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L9" authorId="0" shapeId="0">
+    <comment ref="L9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -171,7 +172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I11" authorId="0" shapeId="0">
+    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -186,7 +187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I12" authorId="0" shapeId="0">
+    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -201,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -215,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E16" authorId="1" shapeId="0">
+    <comment ref="E16" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -229,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F16" authorId="2" shapeId="0">
+    <comment ref="F16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -252,7 +253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G16" authorId="2" shapeId="0">
+    <comment ref="G16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -275,7 +276,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H16" authorId="2" shapeId="0">
+    <comment ref="H16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -289,7 +290,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J16" authorId="2" shapeId="0">
+    <comment ref="J16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -302,7 +303,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M16" authorId="2" shapeId="0">
+    <comment ref="M16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -316,7 +317,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N16" authorId="2" shapeId="0">
+    <comment ref="N16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -330,7 +331,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q17" authorId="2" shapeId="0">
+    <comment ref="Q17" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -344,7 +345,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R17" authorId="2" shapeId="0">
+    <comment ref="R17" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -358,7 +359,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S17" authorId="2" shapeId="0">
+    <comment ref="S17" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -372,7 +373,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B31" authorId="0" shapeId="0">
+    <comment ref="B31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -386,7 +387,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H31" authorId="0" shapeId="0">
+    <comment ref="H31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -410,7 +411,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B50" authorId="0" shapeId="0">
+    <comment ref="B50" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -424,7 +425,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H50" authorId="0" shapeId="0">
+    <comment ref="H50" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -448,7 +449,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E51" authorId="1" shapeId="0">
+    <comment ref="E51" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -643,9 +644,6 @@
     <t>Place:</t>
   </si>
   <si>
-    <t>18.-20.4.2014</t>
-  </si>
-  <si>
     <t>Date:</t>
   </si>
   <si>
@@ -692,12 +690,15 @@
   </si>
   <si>
     <t>GER</t>
+  </si>
+  <si>
+    <t>18.4.2014-20.4.2014</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1681,10 +1682,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
@@ -1729,10 +1726,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
@@ -1780,10 +1773,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
@@ -1831,18 +1820,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1982,18 +1959,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
       <protection hidden="1"/>
@@ -2026,116 +1991,12 @@
       <alignment wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -2166,142 +2027,282 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="6" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="5" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="6" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -2586,15 +2587,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Tabelle10">
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AG64"/>
+  <dimension ref="A1:AA64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:M4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.42578125" style="1" customWidth="1"/>
@@ -2623,69 +2626,69 @@
   <sheetData>
     <row r="1" spans="1:27" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="179" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="178"/>
-      <c r="I2" s="177" t="s">
+      <c r="B2" s="118" t="s">
         <v>64</v>
       </c>
-      <c r="J2" s="176"/>
-      <c r="K2" s="176"/>
-      <c r="L2" s="176"/>
-      <c r="M2" s="175"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="119" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="121"/>
       <c r="N2" s="1"/>
-      <c r="T2" s="143"/>
+      <c r="T2" s="108"/>
     </row>
     <row r="3" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="158" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="156" t="s">
+      <c r="B3" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="J3" s="174"/>
-      <c r="K3" s="174"/>
-      <c r="L3" s="174"/>
-      <c r="M3" s="173"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="122" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="124"/>
       <c r="N3" s="1"/>
-      <c r="T3" s="143" t="s">
-        <v>61</v>
+      <c r="T3" s="108" t="s">
+        <v>60</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="164" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="163"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="163"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="163"/>
-      <c r="H4" s="163"/>
-      <c r="I4" s="172" t="s">
+      <c r="B4" s="114" t="s">
         <v>58</v>
       </c>
-      <c r="J4" s="160"/>
-      <c r="K4" s="160"/>
-      <c r="L4" s="160"/>
-      <c r="M4" s="165"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="125" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" s="126"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="126"/>
+      <c r="M4" s="127"/>
       <c r="N4" s="1"/>
-      <c r="T4" s="143">
+      <c r="T4" s="108">
         <v>2</v>
       </c>
       <c r="U4" s="4">
@@ -2693,72 +2696,72 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="158" t="s">
+      <c r="B5" s="112" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="157"/>
-      <c r="D5" s="157"/>
-      <c r="E5" s="157"/>
-      <c r="F5" s="157"/>
-      <c r="G5" s="157"/>
-      <c r="H5" s="157"/>
-      <c r="I5" s="156" t="s">
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="122" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="155"/>
-      <c r="K5" s="155"/>
-      <c r="L5" s="155"/>
-      <c r="M5" s="154"/>
+      <c r="J5" s="128"/>
+      <c r="K5" s="128"/>
+      <c r="L5" s="128"/>
+      <c r="M5" s="129"/>
       <c r="N5" s="1"/>
-      <c r="T5" s="143"/>
+      <c r="T5" s="108"/>
     </row>
     <row r="6" spans="1:27" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="164" t="s">
+      <c r="B6" s="114" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="163"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="163"/>
-      <c r="H6" s="163"/>
-      <c r="I6" s="171">
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="130">
         <v>24</v>
       </c>
-      <c r="J6" s="170"/>
-      <c r="K6" s="170"/>
-      <c r="L6" s="170"/>
-      <c r="M6" s="169"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="131"/>
+      <c r="M6" s="132"/>
       <c r="N6" s="1"/>
-      <c r="T6" s="143" t="s">
+      <c r="T6" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="U6" s="168">
+      <c r="U6" s="116">
         <v>4</v>
       </c>
-      <c r="V6" s="168"/>
-      <c r="W6" s="167"/>
-      <c r="X6" s="167"/>
+      <c r="V6" s="116"/>
+      <c r="W6" s="115"/>
+      <c r="X6" s="115"/>
     </row>
     <row r="7" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="158" t="s">
+      <c r="B7" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="157"/>
-      <c r="D7" s="157"/>
-      <c r="E7" s="157"/>
-      <c r="F7" s="157"/>
-      <c r="G7" s="157"/>
-      <c r="H7" s="157"/>
-      <c r="I7" s="166">
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="133">
         <v>1.2</v>
       </c>
-      <c r="J7" s="155"/>
-      <c r="K7" s="155"/>
-      <c r="L7" s="155"/>
-      <c r="M7" s="154"/>
+      <c r="J7" s="128"/>
+      <c r="K7" s="128"/>
+      <c r="L7" s="128"/>
+      <c r="M7" s="129"/>
       <c r="N7" s="1"/>
-      <c r="T7" s="143" t="s">
+      <c r="T7" s="108" t="s">
         <v>52</v>
       </c>
       <c r="U7" s="4">
@@ -2766,204 +2769,204 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="164" t="s">
+      <c r="B8" s="114" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="163"/>
-      <c r="H8" s="163"/>
-      <c r="I8" s="162" t="s">
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="134" t="s">
         <v>50</v>
       </c>
-      <c r="J8" s="160"/>
-      <c r="K8" s="160"/>
-      <c r="L8" s="160" t="s">
+      <c r="J8" s="126"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="165"/>
+      <c r="M8" s="127"/>
       <c r="N8" s="1"/>
-      <c r="T8" s="143" t="s">
+      <c r="T8" s="108" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="158" t="s">
+      <c r="B9" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="157"/>
-      <c r="D9" s="157"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="157"/>
-      <c r="H9" s="157"/>
-      <c r="I9" s="156"/>
-      <c r="J9" s="155"/>
-      <c r="K9" s="155"/>
-      <c r="L9" s="155" t="s">
+      <c r="C9" s="111"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="128"/>
+      <c r="K9" s="128"/>
+      <c r="L9" s="128" t="s">
         <v>47</v>
       </c>
-      <c r="M9" s="154"/>
+      <c r="M9" s="129"/>
       <c r="N9" s="1"/>
-      <c r="T9" s="143" t="s">
+      <c r="T9" s="108" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="164" t="s">
+      <c r="B10" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="163"/>
-      <c r="D10" s="163"/>
-      <c r="E10" s="163"/>
-      <c r="F10" s="163"/>
-      <c r="G10" s="163"/>
-      <c r="H10" s="163"/>
-      <c r="I10" s="162"/>
-      <c r="J10" s="161"/>
-      <c r="K10" s="161"/>
-      <c r="L10" s="160"/>
-      <c r="M10" s="159"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="134"/>
+      <c r="J10" s="135"/>
+      <c r="K10" s="135"/>
+      <c r="L10" s="126"/>
+      <c r="M10" s="136"/>
       <c r="N10" s="1"/>
-      <c r="T10" s="143"/>
+      <c r="T10" s="108"/>
     </row>
     <row r="11" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="158" t="s">
+      <c r="B11" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="157"/>
-      <c r="D11" s="157"/>
-      <c r="E11" s="157"/>
-      <c r="F11" s="157"/>
-      <c r="G11" s="157"/>
-      <c r="H11" s="157"/>
-      <c r="I11" s="156">
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="122">
         <v>1405</v>
       </c>
-      <c r="J11" s="155"/>
-      <c r="K11" s="155"/>
-      <c r="L11" s="155"/>
-      <c r="M11" s="154"/>
+      <c r="J11" s="128"/>
+      <c r="K11" s="128"/>
+      <c r="L11" s="128"/>
+      <c r="M11" s="129"/>
       <c r="N11" s="1"/>
-      <c r="T11" s="143"/>
+      <c r="T11" s="108"/>
     </row>
     <row r="12" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="153" t="s">
+      <c r="B12" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="152"/>
-      <c r="D12" s="152"/>
-      <c r="E12" s="152"/>
-      <c r="F12" s="152"/>
-      <c r="G12" s="152"/>
-      <c r="H12" s="152"/>
-      <c r="I12" s="151">
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="137">
         <v>1605</v>
       </c>
-      <c r="J12" s="150"/>
-      <c r="K12" s="150"/>
-      <c r="L12" s="150"/>
-      <c r="M12" s="149"/>
+      <c r="J12" s="138"/>
+      <c r="K12" s="138"/>
+      <c r="L12" s="138"/>
+      <c r="M12" s="139"/>
       <c r="N12" s="1"/>
-      <c r="T12" s="143"/>
+      <c r="T12" s="108"/>
     </row>
     <row r="13" spans="1:27" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="148"/>
-      <c r="C13" s="147"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="147"/>
-      <c r="F13" s="147"/>
-      <c r="G13" s="147"/>
-      <c r="H13" s="147"/>
-      <c r="I13" s="146"/>
-      <c r="J13" s="145"/>
-      <c r="K13" s="145"/>
-      <c r="L13" s="145"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="141"/>
+      <c r="D13" s="141"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="141"/>
+      <c r="I13" s="142"/>
+      <c r="J13" s="143"/>
+      <c r="K13" s="143"/>
+      <c r="L13" s="143"/>
       <c r="M13" s="144"/>
       <c r="N13" s="1"/>
-      <c r="T13" s="143"/>
+      <c r="T13" s="108"/>
     </row>
     <row r="14" spans="1:27" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
     </row>
-    <row r="15" spans="1:27" s="53" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="142" t="s">
+    <row r="15" spans="1:27" s="50" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="141" t="s">
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="61"/>
-      <c r="O15" s="54"/>
-      <c r="Q15" s="60"/>
-      <c r="R15" s="59"/>
-      <c r="S15" s="58"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="51"/>
+      <c r="Q15" s="145"/>
+      <c r="R15" s="146"/>
+      <c r="S15" s="147"/>
       <c r="T15" s="5">
         <v>4</v>
       </c>
-      <c r="U15" s="140"/>
-      <c r="V15" s="140"/>
-      <c r="W15" s="140"/>
-      <c r="X15" s="106"/>
-      <c r="Y15" s="106"/>
-      <c r="AA15" s="105"/>
+      <c r="U15" s="105"/>
+      <c r="V15" s="105"/>
+      <c r="W15" s="105"/>
+      <c r="X15" s="97"/>
+      <c r="Y15" s="97"/>
+      <c r="AA15" s="96"/>
     </row>
     <row r="16" spans="1:27" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="139"/>
-      <c r="B16" s="56" t="s">
+      <c r="A16" s="104"/>
+      <c r="B16" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="57" t="s">
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="55" t="s">
+      <c r="F16" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="55" t="s">
+      <c r="G16" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="103" t="s">
+      <c r="H16" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="52"/>
-      <c r="J16" s="102" t="s">
+      <c r="I16" s="49"/>
+      <c r="J16" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="K16" s="101" t="s">
-        <v>66</v>
-      </c>
-      <c r="L16" s="101" t="s">
+      <c r="K16" s="92" t="s">
+        <v>65</v>
+      </c>
+      <c r="L16" s="92" t="s">
+        <v>66</v>
+      </c>
+      <c r="M16" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="M16" s="101" t="s">
-        <v>68</v>
-      </c>
-      <c r="N16" s="100" t="s">
+      <c r="N16" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="Q16" s="99" t="s">
+      <c r="Q16" s="148" t="s">
         <v>3</v>
       </c>
-      <c r="R16" s="98"/>
-      <c r="S16" s="97"/>
+      <c r="R16" s="149"/>
+      <c r="S16" s="150"/>
       <c r="T16" s="5"/>
-      <c r="U16" s="107" t="s">
+      <c r="U16" s="98" t="s">
         <v>42</v>
       </c>
       <c r="V16" s="4" t="s">
@@ -2973,27 +2976,27 @@
       <c r="Y16" s="3"/>
     </row>
     <row r="17" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="139"/>
-      <c r="B17" s="92"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="48"/>
-      <c r="Q17" s="87" t="s">
+      <c r="A17" s="104"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="45"/>
+      <c r="Q17" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="R17" s="86" t="s">
+      <c r="R17" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="S17" s="85" t="s">
+      <c r="S17" s="79" t="s">
         <v>0</v>
       </c>
       <c r="T17" s="5"/>
@@ -3004,54 +3007,54 @@
       <c r="Y17" s="3"/>
     </row>
     <row r="18" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="44">
+      <c r="B18" s="151">
         <v>1</v>
       </c>
-      <c r="C18" s="43">
+      <c r="C18" s="41">
         <v>1</v>
       </c>
-      <c r="D18" s="43">
+      <c r="D18" s="41">
         <v>1</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="41" t="s">
+      <c r="F18" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="38">
+        <v>27</v>
+      </c>
+      <c r="H18" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="73">
+        <v>150</v>
+      </c>
+      <c r="K18" s="36">
+        <v>5.5</v>
+      </c>
+      <c r="L18" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="M18" s="34">
+        <v>50.5</v>
+      </c>
+      <c r="N18" s="33">
+        <v>206</v>
+      </c>
+      <c r="Q18" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="R18" s="43">
+        <v>103</v>
+      </c>
+      <c r="S18" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="T18" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="G18" s="40">
-        <v>27</v>
-      </c>
-      <c r="H18" s="39">
-        <v>2.5</v>
-      </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="79">
-        <v>150</v>
-      </c>
-      <c r="K18" s="38">
-        <v>5.5</v>
-      </c>
-      <c r="L18" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="M18" s="36">
-        <v>50.5</v>
-      </c>
-      <c r="N18" s="35">
-        <v>206</v>
-      </c>
-      <c r="Q18" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="R18" s="46">
-        <v>103</v>
-      </c>
-      <c r="S18" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="T18" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="U18" s="4">
         <v>12.5</v>
@@ -3063,52 +3066,52 @@
       <c r="Y18" s="3"/>
     </row>
     <row r="19" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="30"/>
-      <c r="C19" s="29">
+      <c r="B19" s="152"/>
+      <c r="C19" s="28">
         <v>1</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="28">
         <v>1</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="27" t="s">
+      <c r="F19" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="25">
+        <v>8</v>
+      </c>
+      <c r="H19" s="24">
+        <v>7.5</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="72">
+        <v>150</v>
+      </c>
+      <c r="K19" s="23">
+        <v>5.5</v>
+      </c>
+      <c r="L19" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="M19" s="21">
+        <v>50.5</v>
+      </c>
+      <c r="N19" s="20">
+        <v>206</v>
+      </c>
+      <c r="Q19" s="103" t="s">
+        <v>22</v>
+      </c>
+      <c r="R19" s="102">
+        <v>103</v>
+      </c>
+      <c r="S19" s="101" t="s">
+        <v>66</v>
+      </c>
+      <c r="T19" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="G19" s="26">
-        <v>8</v>
-      </c>
-      <c r="H19" s="25">
-        <v>7.5</v>
-      </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="78">
-        <v>150</v>
-      </c>
-      <c r="K19" s="24">
-        <v>5.5</v>
-      </c>
-      <c r="L19" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="M19" s="22">
-        <v>50.5</v>
-      </c>
-      <c r="N19" s="21">
-        <v>206</v>
-      </c>
-      <c r="Q19" s="138" t="s">
-        <v>22</v>
-      </c>
-      <c r="R19" s="137">
-        <v>103</v>
-      </c>
-      <c r="S19" s="136" t="s">
-        <v>67</v>
-      </c>
-      <c r="T19" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="U19" s="4">
         <v>12.5</v>
@@ -3120,7 +3123,7 @@
       <c r="Y19" s="3"/>
     </row>
     <row r="20" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="17"/>
+      <c r="B20" s="153"/>
       <c r="C20" s="16">
         <v>1</v>
       </c>
@@ -3131,7 +3134,7 @@
         <v>21</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G20" s="13">
         <v>28</v>
@@ -3140,14 +3143,14 @@
         <v>2.5</v>
       </c>
       <c r="I20" s="11"/>
-      <c r="J20" s="77">
+      <c r="J20" s="71">
         <v>150</v>
       </c>
       <c r="K20" s="10">
         <v>5.5</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M20" s="8">
         <v>50.5</v>
@@ -3155,17 +3158,17 @@
       <c r="N20" s="7">
         <v>206</v>
       </c>
-      <c r="Q20" s="47" t="s">
+      <c r="Q20" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="R20" s="46">
+      <c r="R20" s="43">
         <v>103</v>
       </c>
-      <c r="S20" s="45" t="s">
-        <v>67</v>
+      <c r="S20" s="42" t="s">
+        <v>66</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U20" s="4">
         <v>12.5</v>
@@ -3177,54 +3180,54 @@
       <c r="Y20" s="3"/>
     </row>
     <row r="21" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="44">
+      <c r="B21" s="151">
         <v>2</v>
       </c>
-      <c r="C21" s="43">
+      <c r="C21" s="41">
         <v>2</v>
       </c>
-      <c r="D21" s="43">
+      <c r="D21" s="41">
         <v>2</v>
       </c>
-      <c r="E21" s="42" t="s">
+      <c r="E21" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="G21" s="40">
+      <c r="F21" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="38">
         <v>26</v>
       </c>
-      <c r="H21" s="39">
+      <c r="H21" s="37">
         <v>2.5</v>
       </c>
       <c r="I21" s="11"/>
-      <c r="J21" s="79">
+      <c r="J21" s="73">
         <v>120</v>
       </c>
-      <c r="K21" s="38">
+      <c r="K21" s="36">
         <v>3.5</v>
       </c>
-      <c r="L21" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="M21" s="36">
+      <c r="L21" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="M21" s="34">
         <v>33</v>
       </c>
-      <c r="N21" s="35">
+      <c r="N21" s="33">
         <v>156.5</v>
       </c>
-      <c r="Q21" s="138" t="s">
+      <c r="Q21" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="R21" s="137">
+      <c r="R21" s="102">
         <v>78.25</v>
       </c>
-      <c r="S21" s="136" t="s">
-        <v>67</v>
+      <c r="S21" s="101" t="s">
+        <v>66</v>
       </c>
       <c r="T21" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U21" s="4">
         <v>17.5</v>
@@ -3236,52 +3239,52 @@
       <c r="Y21" s="3"/>
     </row>
     <row r="22" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="30"/>
-      <c r="C22" s="29">
+      <c r="B22" s="152"/>
+      <c r="C22" s="28">
         <v>2</v>
       </c>
-      <c r="D22" s="29">
+      <c r="D22" s="28">
         <v>2</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="E22" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="G22" s="26">
+      <c r="F22" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="25">
         <v>18</v>
       </c>
-      <c r="H22" s="25">
+      <c r="H22" s="24">
         <v>5</v>
       </c>
       <c r="I22" s="11"/>
-      <c r="J22" s="78">
+      <c r="J22" s="72">
         <v>120</v>
       </c>
-      <c r="K22" s="24">
+      <c r="K22" s="23">
         <v>3.5</v>
       </c>
-      <c r="L22" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="M22" s="22">
+      <c r="L22" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="M22" s="21">
         <v>33</v>
       </c>
-      <c r="N22" s="21">
+      <c r="N22" s="20">
         <v>156.5</v>
       </c>
-      <c r="Q22" s="47" t="s">
+      <c r="Q22" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="R22" s="46">
+      <c r="R22" s="43">
         <v>78.25</v>
       </c>
-      <c r="S22" s="45" t="s">
-        <v>67</v>
+      <c r="S22" s="42" t="s">
+        <v>66</v>
       </c>
       <c r="T22" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U22" s="4">
         <v>17.5</v>
@@ -3293,7 +3296,7 @@
       <c r="Y22" s="3"/>
     </row>
     <row r="23" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="17"/>
+      <c r="B23" s="153"/>
       <c r="C23" s="16">
         <v>2</v>
       </c>
@@ -3304,7 +3307,7 @@
         <v>37</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G23" s="13">
         <v>1</v>
@@ -3313,14 +3316,14 @@
         <v>10</v>
       </c>
       <c r="I23" s="11"/>
-      <c r="J23" s="77">
+      <c r="J23" s="71">
         <v>120</v>
       </c>
       <c r="K23" s="10">
         <v>3.5</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M23" s="8">
         <v>33</v>
@@ -3328,17 +3331,17 @@
       <c r="N23" s="7">
         <v>156.5</v>
       </c>
-      <c r="Q23" s="138" t="s">
+      <c r="Q23" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="R23" s="137">
+      <c r="R23" s="102">
         <v>78.25</v>
       </c>
-      <c r="S23" s="136" t="s">
-        <v>67</v>
+      <c r="S23" s="101" t="s">
+        <v>66</v>
       </c>
       <c r="T23" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U23" s="4">
         <v>17.5</v>
@@ -3350,54 +3353,54 @@
       <c r="Y23" s="3"/>
     </row>
     <row r="24" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="44">
+      <c r="B24" s="151">
         <v>3</v>
       </c>
-      <c r="C24" s="43">
+      <c r="C24" s="41">
         <v>3</v>
       </c>
-      <c r="D24" s="43">
+      <c r="D24" s="41">
         <v>3</v>
       </c>
-      <c r="E24" s="42" t="s">
+      <c r="E24" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="G24" s="40">
+      <c r="F24" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" s="38">
         <v>10</v>
       </c>
-      <c r="H24" s="39">
+      <c r="H24" s="37">
         <v>7.5</v>
       </c>
       <c r="I24" s="11"/>
-      <c r="J24" s="79">
+      <c r="J24" s="73">
         <v>96</v>
       </c>
-      <c r="K24" s="38">
+      <c r="K24" s="36">
         <v>5.5</v>
       </c>
-      <c r="L24" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="M24" s="36">
+      <c r="L24" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="M24" s="34">
         <v>15.5</v>
       </c>
-      <c r="N24" s="35">
+      <c r="N24" s="33">
         <v>117</v>
       </c>
-      <c r="Q24" s="47" t="s">
+      <c r="Q24" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="R24" s="46">
+      <c r="R24" s="43">
         <v>58.5</v>
       </c>
-      <c r="S24" s="45" t="s">
-        <v>67</v>
+      <c r="S24" s="42" t="s">
+        <v>66</v>
       </c>
       <c r="T24" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U24" s="4">
         <v>17.5</v>
@@ -3409,52 +3412,52 @@
       <c r="Y24" s="3"/>
     </row>
     <row r="25" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="30"/>
-      <c r="C25" s="29">
+      <c r="B25" s="152"/>
+      <c r="C25" s="28">
         <v>3</v>
       </c>
-      <c r="D25" s="29">
+      <c r="D25" s="28">
         <v>3</v>
       </c>
-      <c r="E25" s="28" t="s">
+      <c r="E25" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="G25" s="26">
+      <c r="F25" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" s="25">
         <v>6</v>
       </c>
-      <c r="H25" s="25">
+      <c r="H25" s="24">
         <v>7.5</v>
       </c>
       <c r="I25" s="11"/>
-      <c r="J25" s="78">
+      <c r="J25" s="72">
         <v>96</v>
       </c>
-      <c r="K25" s="24">
+      <c r="K25" s="23">
         <v>5.5</v>
       </c>
-      <c r="L25" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="M25" s="22">
+      <c r="L25" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="M25" s="21">
         <v>15.5</v>
       </c>
-      <c r="N25" s="21">
+      <c r="N25" s="20">
         <v>117</v>
       </c>
-      <c r="Q25" s="138" t="s">
+      <c r="Q25" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="R25" s="137">
+      <c r="R25" s="102">
         <v>58.5</v>
       </c>
-      <c r="S25" s="136" t="s">
-        <v>67</v>
+      <c r="S25" s="101" t="s">
+        <v>66</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U25" s="4">
         <v>17.5</v>
@@ -3466,7 +3469,7 @@
       <c r="Y25" s="3"/>
     </row>
     <row r="26" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="17"/>
+      <c r="B26" s="153"/>
       <c r="C26" s="16">
         <v>3</v>
       </c>
@@ -3477,7 +3480,7 @@
         <v>24</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G26" s="13">
         <v>32</v>
@@ -3486,14 +3489,14 @@
         <v>2.5</v>
       </c>
       <c r="I26" s="11"/>
-      <c r="J26" s="77">
+      <c r="J26" s="71">
         <v>96</v>
       </c>
       <c r="K26" s="10">
         <v>5.5</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M26" s="8">
         <v>15.5</v>
@@ -3501,17 +3504,17 @@
       <c r="N26" s="7">
         <v>117</v>
       </c>
-      <c r="Q26" s="47" t="s">
+      <c r="Q26" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="R26" s="46">
+      <c r="R26" s="43">
         <v>58.5</v>
       </c>
-      <c r="S26" s="45" t="s">
-        <v>67</v>
+      <c r="S26" s="42" t="s">
+        <v>66</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U26" s="4">
         <v>17.5</v>
@@ -3523,54 +3526,54 @@
       <c r="Y26" s="3"/>
     </row>
     <row r="27" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="44">
+      <c r="B27" s="151">
         <v>4</v>
       </c>
-      <c r="C27" s="43">
+      <c r="C27" s="41">
         <v>4</v>
       </c>
-      <c r="D27" s="43">
+      <c r="D27" s="41">
         <v>4</v>
       </c>
-      <c r="E27" s="42" t="s">
+      <c r="E27" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="G27" s="40">
+      <c r="F27" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" s="38">
         <v>9</v>
       </c>
-      <c r="H27" s="39">
+      <c r="H27" s="37">
         <v>7.5</v>
       </c>
       <c r="I27" s="11"/>
-      <c r="J27" s="79">
+      <c r="J27" s="73">
         <v>84</v>
       </c>
-      <c r="K27" s="38">
+      <c r="K27" s="36">
         <v>3.5</v>
       </c>
-      <c r="L27" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="M27" s="36">
+      <c r="L27" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="M27" s="34">
         <v>0</v>
       </c>
-      <c r="N27" s="35">
+      <c r="N27" s="33">
         <v>87.5</v>
       </c>
-      <c r="Q27" s="138" t="s">
+      <c r="Q27" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="R27" s="137">
+      <c r="R27" s="102">
         <v>43.75</v>
       </c>
-      <c r="S27" s="136" t="s">
-        <v>67</v>
+      <c r="S27" s="101" t="s">
+        <v>66</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U27" s="4">
         <v>15.5</v>
@@ -3582,52 +3585,52 @@
       <c r="Y27" s="3"/>
     </row>
     <row r="28" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="30"/>
-      <c r="C28" s="29">
+      <c r="B28" s="152"/>
+      <c r="C28" s="28">
         <v>4</v>
       </c>
-      <c r="D28" s="29">
+      <c r="D28" s="28">
         <v>4</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="E28" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="G28" s="26">
+      <c r="F28" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" s="25">
         <v>161</v>
       </c>
-      <c r="H28" s="25">
+      <c r="H28" s="24">
         <v>0.5</v>
       </c>
       <c r="I28" s="11"/>
-      <c r="J28" s="78">
+      <c r="J28" s="72">
         <v>84</v>
       </c>
-      <c r="K28" s="24">
+      <c r="K28" s="23">
         <v>3.5</v>
       </c>
-      <c r="L28" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="M28" s="22">
+      <c r="L28" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="M28" s="21">
         <v>0</v>
       </c>
-      <c r="N28" s="21">
+      <c r="N28" s="20">
         <v>87.5</v>
       </c>
-      <c r="Q28" s="47" t="s">
+      <c r="Q28" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="R28" s="46">
+      <c r="R28" s="43">
         <v>43.75</v>
       </c>
-      <c r="S28" s="45" t="s">
-        <v>67</v>
+      <c r="S28" s="42" t="s">
+        <v>66</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U28" s="4">
         <v>15.5</v>
@@ -3639,7 +3642,7 @@
       <c r="Y28" s="3"/>
     </row>
     <row r="29" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="17"/>
+      <c r="B29" s="153"/>
       <c r="C29" s="16">
         <v>4</v>
       </c>
@@ -3650,7 +3653,7 @@
         <v>34</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G29" s="13">
         <v>7</v>
@@ -3659,14 +3662,14 @@
         <v>7.5</v>
       </c>
       <c r="I29" s="11"/>
-      <c r="J29" s="77">
+      <c r="J29" s="71">
         <v>84</v>
       </c>
       <c r="K29" s="10">
         <v>3.5</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M29" s="8">
         <v>0</v>
@@ -3674,17 +3677,17 @@
       <c r="N29" s="7">
         <v>87.5</v>
       </c>
-      <c r="Q29" s="138" t="s">
+      <c r="Q29" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="R29" s="137">
+      <c r="R29" s="102">
         <v>43.75</v>
       </c>
-      <c r="S29" s="136" t="s">
-        <v>67</v>
+      <c r="S29" s="101" t="s">
+        <v>66</v>
       </c>
       <c r="T29" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U29" s="4">
         <v>15.5</v>
@@ -3696,49 +3699,49 @@
       <c r="Y29" s="3"/>
     </row>
     <row r="30" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="76"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="72"/>
-      <c r="J30" s="71"/>
-      <c r="K30" s="71"/>
-      <c r="L30" s="71"/>
-      <c r="M30" s="70"/>
-      <c r="N30" s="69"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="65"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="63"/>
       <c r="S30" s="1"/>
       <c r="T30" s="5"/>
       <c r="W30" s="4"/>
       <c r="Y30" s="3"/>
     </row>
     <row r="31" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="68" t="s">
+      <c r="B31" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="66" t="s">
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="G31" s="65"/>
-      <c r="H31" s="64" t="s">
+      <c r="G31" s="59"/>
+      <c r="H31" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="I31" s="63"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="61"/>
-      <c r="O31" s="54"/>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="60"/>
-      <c r="R31" s="59"/>
-      <c r="S31" s="58"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="145"/>
+      <c r="R31" s="146"/>
+      <c r="S31" s="147"/>
       <c r="T31" s="5">
         <v>4</v>
       </c>
@@ -3746,147 +3749,147 @@
       <c r="Y31" s="3"/>
     </row>
     <row r="32" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="133" t="s">
+      <c r="B32" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="91"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="135" t="s">
+      <c r="C32" s="85"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="177" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="132" t="s">
+      <c r="F32" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="G32" s="132" t="s">
+      <c r="G32" s="154" t="s">
         <v>7</v>
       </c>
-      <c r="H32" s="134" t="s">
+      <c r="H32" s="157" t="s">
         <v>6</v>
       </c>
-      <c r="I32" s="93"/>
-      <c r="J32" s="133" t="s">
+      <c r="I32" s="87"/>
+      <c r="J32" s="160" t="s">
         <v>5</v>
       </c>
-      <c r="K32" s="132" t="s">
-        <v>66</v>
-      </c>
-      <c r="L32" s="132" t="s">
-        <v>67</v>
-      </c>
-      <c r="M32" s="132" t="s">
-        <v>67</v>
-      </c>
-      <c r="N32" s="131" t="s">
+      <c r="K32" s="154" t="s">
+        <v>65</v>
+      </c>
+      <c r="L32" s="154" t="s">
+        <v>66</v>
+      </c>
+      <c r="M32" s="154" t="s">
+        <v>66</v>
+      </c>
+      <c r="N32" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="O32" s="54"/>
-      <c r="P32" s="53"/>
-      <c r="Q32" s="130" t="s">
+      <c r="O32" s="51"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="R32" s="129"/>
-      <c r="S32" s="128"/>
+      <c r="R32" s="167"/>
+      <c r="S32" s="168"/>
       <c r="W32" s="4"/>
       <c r="Y32" s="3"/>
     </row>
     <row r="33" spans="2:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="125"/>
-      <c r="C33" s="127"/>
-      <c r="D33" s="127"/>
-      <c r="E33" s="124"/>
-      <c r="F33" s="126"/>
-      <c r="G33" s="124"/>
-      <c r="H33" s="121"/>
-      <c r="I33" s="93"/>
-      <c r="J33" s="125"/>
-      <c r="K33" s="124" t="s">
-        <v>66</v>
-      </c>
-      <c r="L33" s="123"/>
-      <c r="M33" s="122"/>
-      <c r="N33" s="121"/>
-      <c r="O33" s="54"/>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="120"/>
-      <c r="R33" s="119"/>
-      <c r="S33" s="118"/>
+      <c r="B33" s="161"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="178"/>
+      <c r="G33" s="155"/>
+      <c r="H33" s="158"/>
+      <c r="I33" s="87"/>
+      <c r="J33" s="161"/>
+      <c r="K33" s="155" t="s">
+        <v>65</v>
+      </c>
+      <c r="L33" s="175"/>
+      <c r="M33" s="163"/>
+      <c r="N33" s="158"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="169"/>
+      <c r="R33" s="170"/>
+      <c r="S33" s="171"/>
       <c r="T33" s="5"/>
       <c r="W33" s="4"/>
       <c r="Y33" s="3"/>
     </row>
     <row r="34" spans="2:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="125"/>
-      <c r="C34" s="127"/>
-      <c r="D34" s="127"/>
-      <c r="E34" s="124"/>
-      <c r="F34" s="126"/>
-      <c r="G34" s="124"/>
-      <c r="H34" s="121"/>
-      <c r="I34" s="93"/>
-      <c r="J34" s="125"/>
-      <c r="K34" s="124" t="s">
-        <v>66</v>
-      </c>
-      <c r="L34" s="123"/>
-      <c r="M34" s="122"/>
-      <c r="N34" s="121"/>
-      <c r="O34" s="54"/>
-      <c r="P34" s="53"/>
-      <c r="Q34" s="120"/>
-      <c r="R34" s="119"/>
-      <c r="S34" s="118"/>
+      <c r="B34" s="161"/>
+      <c r="C34" s="100"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="155"/>
+      <c r="F34" s="178"/>
+      <c r="G34" s="155"/>
+      <c r="H34" s="158"/>
+      <c r="I34" s="87"/>
+      <c r="J34" s="161"/>
+      <c r="K34" s="155" t="s">
+        <v>65</v>
+      </c>
+      <c r="L34" s="175"/>
+      <c r="M34" s="163"/>
+      <c r="N34" s="158"/>
+      <c r="O34" s="51"/>
+      <c r="P34" s="50"/>
+      <c r="Q34" s="169"/>
+      <c r="R34" s="170"/>
+      <c r="S34" s="171"/>
       <c r="T34" s="5"/>
       <c r="W34" s="4"/>
       <c r="Y34" s="3"/>
     </row>
     <row r="35" spans="2:27" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="115"/>
-      <c r="C35" s="117"/>
-      <c r="D35" s="117"/>
-      <c r="E35" s="114"/>
-      <c r="F35" s="116"/>
-      <c r="G35" s="114"/>
-      <c r="H35" s="111"/>
-      <c r="I35" s="52"/>
-      <c r="J35" s="115"/>
-      <c r="K35" s="114" t="s">
-        <v>66</v>
-      </c>
-      <c r="L35" s="113"/>
-      <c r="M35" s="112"/>
-      <c r="N35" s="111"/>
-      <c r="Q35" s="110"/>
-      <c r="R35" s="109"/>
-      <c r="S35" s="108"/>
+      <c r="B35" s="162"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="156"/>
+      <c r="F35" s="179"/>
+      <c r="G35" s="156"/>
+      <c r="H35" s="159"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="162"/>
+      <c r="K35" s="156" t="s">
+        <v>65</v>
+      </c>
+      <c r="L35" s="176"/>
+      <c r="M35" s="164"/>
+      <c r="N35" s="159"/>
+      <c r="Q35" s="172"/>
+      <c r="R35" s="173"/>
+      <c r="S35" s="174"/>
       <c r="T35" s="5"/>
       <c r="W35" s="4"/>
       <c r="Y35" s="3"/>
     </row>
     <row r="36" spans="2:27" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="92"/>
-      <c r="C36" s="91"/>
-      <c r="D36" s="91"/>
-      <c r="E36" s="90"/>
-      <c r="F36" s="89"/>
-      <c r="G36" s="89"/>
-      <c r="H36" s="88"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="49"/>
-      <c r="M36" s="49"/>
-      <c r="N36" s="48"/>
-      <c r="Q36" s="87" t="s">
+      <c r="B36" s="86"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="83"/>
+      <c r="G36" s="83"/>
+      <c r="H36" s="82"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="45"/>
+      <c r="Q36" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="R36" s="86" t="s">
+      <c r="R36" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="S36" s="85" t="s">
+      <c r="S36" s="79" t="s">
         <v>0</v>
       </c>
       <c r="T36" s="5"/>
-      <c r="W36" s="107" t="s">
+      <c r="W36" s="98" t="s">
         <v>40</v>
       </c>
       <c r="Y36" s="3" t="s">
@@ -3894,56 +3897,56 @@
       </c>
     </row>
     <row r="37" spans="2:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="44">
+      <c r="B37" s="151">
         <v>1</v>
       </c>
-      <c r="C37" s="43">
+      <c r="C37" s="41">
         <v>1</v>
       </c>
-      <c r="D37" s="96">
+      <c r="D37" s="90">
         <v>0</v>
       </c>
-      <c r="E37" s="42" t="s">
+      <c r="E37" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="F37" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="G37" s="40">
+      <c r="F37" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="G37" s="38">
         <v>26</v>
       </c>
-      <c r="H37" s="39">
+      <c r="H37" s="37">
         <v>2.5</v>
       </c>
       <c r="I37" s="11"/>
-      <c r="J37" s="79" t="s">
-        <v>67</v>
-      </c>
-      <c r="K37" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="L37" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="M37" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="N37" s="35">
+      <c r="J37" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="K37" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="L37" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="M37" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="N37" s="33">
         <v>0</v>
       </c>
-      <c r="Q37" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="R37" s="46">
+      <c r="Q37" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="R37" s="43">
         <v>0</v>
       </c>
-      <c r="S37" s="45" t="s">
-        <v>67</v>
+      <c r="S37" s="42" t="s">
+        <v>66</v>
       </c>
       <c r="T37" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="U37" s="31">
+        <v>66</v>
+      </c>
+      <c r="U37" s="29">
         <v>17.5</v>
       </c>
       <c r="V37" s="4" t="s">
@@ -3957,52 +3960,52 @@
       </c>
     </row>
     <row r="38" spans="2:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="30"/>
-      <c r="C38" s="29">
+      <c r="B38" s="152"/>
+      <c r="C38" s="28">
         <v>1</v>
       </c>
-      <c r="D38" s="95">
+      <c r="D38" s="89">
         <v>0</v>
       </c>
-      <c r="E38" s="28" t="s">
+      <c r="E38" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="F38" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="G38" s="26">
+      <c r="F38" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" s="25">
         <v>18</v>
       </c>
-      <c r="H38" s="25">
+      <c r="H38" s="24">
         <v>5</v>
       </c>
       <c r="I38" s="11"/>
-      <c r="J38" s="78" t="s">
-        <v>67</v>
-      </c>
-      <c r="K38" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="L38" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="M38" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="N38" s="21">
+      <c r="J38" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="K38" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="L38" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="M38" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="N38" s="20">
         <v>0</v>
       </c>
-      <c r="Q38" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="R38" s="33">
+      <c r="Q38" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="R38" s="31">
         <v>0</v>
       </c>
-      <c r="S38" s="32" t="s">
-        <v>67</v>
+      <c r="S38" s="30" t="s">
+        <v>66</v>
       </c>
       <c r="T38" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V38" s="4" t="s">
         <v>27</v>
@@ -4014,19 +4017,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="2:27" s="53" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="17"/>
+    <row r="39" spans="2:27" s="50" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="153"/>
       <c r="C39" s="16">
         <v>1</v>
       </c>
-      <c r="D39" s="94">
+      <c r="D39" s="88">
         <v>0</v>
       </c>
       <c r="E39" s="15" t="s">
         <v>37</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G39" s="13">
         <v>1</v>
@@ -4035,34 +4038,34 @@
         <v>10</v>
       </c>
       <c r="I39" s="11"/>
-      <c r="J39" s="77" t="s">
-        <v>67</v>
+      <c r="J39" s="71" t="s">
+        <v>66</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N39" s="7">
         <v>0</v>
       </c>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
-      <c r="Q39" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="R39" s="19">
+      <c r="Q39" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="R39" s="18">
         <v>0</v>
       </c>
-      <c r="S39" s="18" t="s">
-        <v>67</v>
+      <c r="S39" s="17" t="s">
+        <v>66</v>
       </c>
       <c r="T39" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U39" s="4"/>
       <c r="V39" s="4" t="s">
@@ -4071,63 +4074,63 @@
       <c r="W39" s="4">
         <v>3.5</v>
       </c>
-      <c r="X39" s="106"/>
+      <c r="X39" s="97"/>
       <c r="Y39" s="3">
         <v>2</v>
       </c>
-      <c r="AA39" s="105"/>
+      <c r="AA39" s="96"/>
     </row>
     <row r="40" spans="2:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="44">
+      <c r="B40" s="151">
         <v>2</v>
       </c>
-      <c r="C40" s="43">
+      <c r="C40" s="41">
         <v>2</v>
       </c>
-      <c r="D40" s="96">
+      <c r="D40" s="90">
         <v>0</v>
       </c>
-      <c r="E40" s="42" t="s">
+      <c r="E40" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="F40" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="G40" s="40">
+      <c r="F40" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="G40" s="38">
         <v>9</v>
       </c>
-      <c r="H40" s="39">
+      <c r="H40" s="37">
         <v>7.5</v>
       </c>
       <c r="I40" s="11"/>
-      <c r="J40" s="79" t="s">
-        <v>67</v>
-      </c>
-      <c r="K40" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="L40" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="M40" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="N40" s="35">
+      <c r="J40" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="K40" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="L40" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="M40" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="N40" s="33">
         <v>0</v>
       </c>
-      <c r="Q40" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="R40" s="33">
+      <c r="Q40" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="R40" s="31">
         <v>0</v>
       </c>
-      <c r="S40" s="32" t="s">
-        <v>67</v>
+      <c r="S40" s="30" t="s">
+        <v>66</v>
       </c>
       <c r="T40" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="U40" s="31">
+        <v>66</v>
+      </c>
+      <c r="U40" s="29">
         <v>15.5</v>
       </c>
       <c r="V40" s="4" t="s">
@@ -4141,52 +4144,52 @@
       </c>
     </row>
     <row r="41" spans="2:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="30"/>
-      <c r="C41" s="29">
+      <c r="B41" s="152"/>
+      <c r="C41" s="28">
         <v>2</v>
       </c>
-      <c r="D41" s="95">
+      <c r="D41" s="89">
         <v>0</v>
       </c>
-      <c r="E41" s="28" t="s">
+      <c r="E41" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="F41" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="G41" s="26">
+      <c r="F41" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G41" s="25">
         <v>161</v>
       </c>
-      <c r="H41" s="25">
+      <c r="H41" s="24">
         <v>0.5</v>
       </c>
       <c r="I41" s="11"/>
-      <c r="J41" s="78" t="s">
-        <v>67</v>
-      </c>
-      <c r="K41" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="L41" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="M41" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="N41" s="21">
+      <c r="J41" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="K41" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="L41" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="M41" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="N41" s="20">
         <v>0</v>
       </c>
-      <c r="Q41" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="R41" s="19">
+      <c r="Q41" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="R41" s="18">
         <v>0</v>
       </c>
-      <c r="S41" s="18" t="s">
-        <v>67</v>
+      <c r="S41" s="17" t="s">
+        <v>66</v>
       </c>
       <c r="T41" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V41" s="4" t="s">
         <v>27</v>
@@ -4199,18 +4202,18 @@
       </c>
     </row>
     <row r="42" spans="2:27" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="17"/>
+      <c r="B42" s="153"/>
       <c r="C42" s="16">
         <v>2</v>
       </c>
-      <c r="D42" s="94">
+      <c r="D42" s="88">
         <v>0</v>
       </c>
       <c r="E42" s="15" t="s">
         <v>34</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G42" s="13">
         <v>7</v>
@@ -4219,32 +4222,32 @@
         <v>7.5</v>
       </c>
       <c r="I42" s="11"/>
-      <c r="J42" s="77" t="s">
-        <v>67</v>
+      <c r="J42" s="71" t="s">
+        <v>66</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N42" s="7">
         <v>0</v>
       </c>
-      <c r="Q42" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="R42" s="33">
+      <c r="Q42" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="R42" s="31">
         <v>0</v>
       </c>
-      <c r="S42" s="32" t="s">
-        <v>67</v>
+      <c r="S42" s="30" t="s">
+        <v>66</v>
       </c>
       <c r="T42" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V42" s="4" t="s">
         <v>27</v>
@@ -4257,56 +4260,56 @@
       </c>
     </row>
     <row r="43" spans="2:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="44">
+      <c r="B43" s="151">
         <v>3</v>
       </c>
-      <c r="C43" s="43">
+      <c r="C43" s="41">
         <v>3</v>
       </c>
-      <c r="D43" s="96">
+      <c r="D43" s="90">
         <v>5</v>
       </c>
-      <c r="E43" s="42" t="s">
+      <c r="E43" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="F43" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="G43" s="40">
+      <c r="F43" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="G43" s="38">
         <v>177</v>
       </c>
-      <c r="H43" s="39">
+      <c r="H43" s="37">
         <v>0.5</v>
       </c>
       <c r="I43" s="11"/>
-      <c r="J43" s="79">
-        <v>66</v>
-      </c>
-      <c r="K43" s="38">
+      <c r="J43" s="73">
+        <v>66</v>
+      </c>
+      <c r="K43" s="36">
         <v>2.5</v>
       </c>
-      <c r="L43" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="M43" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="N43" s="35">
+      <c r="L43" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="M43" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="N43" s="33">
         <v>68.5</v>
       </c>
-      <c r="Q43" s="20" t="s">
+      <c r="Q43" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="R43" s="19">
+      <c r="R43" s="18">
         <v>34.25</v>
       </c>
-      <c r="S43" s="18" t="s">
-        <v>67</v>
+      <c r="S43" s="17" t="s">
+        <v>66</v>
       </c>
       <c r="T43" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="U43" s="31">
+        <v>71</v>
+      </c>
+      <c r="U43" s="29">
         <v>1</v>
       </c>
       <c r="V43" s="4" t="s">
@@ -4320,52 +4323,52 @@
       </c>
     </row>
     <row r="44" spans="2:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="30"/>
-      <c r="C44" s="29">
+      <c r="B44" s="152"/>
+      <c r="C44" s="28">
         <v>3</v>
       </c>
-      <c r="D44" s="95">
+      <c r="D44" s="89">
         <v>5</v>
       </c>
-      <c r="E44" s="28" t="s">
+      <c r="E44" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="F44" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="G44" s="26">
+      <c r="F44" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G44" s="25">
         <v>108</v>
       </c>
-      <c r="H44" s="25">
+      <c r="H44" s="24">
         <v>0.5</v>
       </c>
       <c r="I44" s="11"/>
-      <c r="J44" s="78">
-        <v>66</v>
-      </c>
-      <c r="K44" s="24">
+      <c r="J44" s="72">
+        <v>66</v>
+      </c>
+      <c r="K44" s="23">
         <v>2.5</v>
       </c>
-      <c r="L44" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="M44" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="N44" s="21">
+      <c r="L44" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="M44" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="N44" s="20">
         <v>68.5</v>
       </c>
-      <c r="Q44" s="34" t="s">
+      <c r="Q44" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="R44" s="33">
+      <c r="R44" s="31">
         <v>34.25</v>
       </c>
-      <c r="S44" s="32" t="s">
-        <v>67</v>
+      <c r="S44" s="30" t="s">
+        <v>66</v>
       </c>
       <c r="T44" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V44" s="4" t="s">
         <v>27</v>
@@ -4378,18 +4381,18 @@
       </c>
     </row>
     <row r="45" spans="2:27" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="17"/>
+      <c r="B45" s="153"/>
       <c r="C45" s="16">
         <v>3</v>
       </c>
-      <c r="D45" s="94">
+      <c r="D45" s="88">
         <v>5</v>
       </c>
       <c r="E45" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G45" s="13">
         <v>226</v>
@@ -4398,32 +4401,32 @@
         <v>0</v>
       </c>
       <c r="I45" s="11"/>
-      <c r="J45" s="77">
+      <c r="J45" s="71">
         <v>66</v>
       </c>
       <c r="K45" s="10">
         <v>2.5</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N45" s="7">
         <v>68.5</v>
       </c>
-      <c r="Q45" s="20" t="s">
+      <c r="Q45" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="R45" s="19">
+      <c r="R45" s="18">
         <v>34.25</v>
       </c>
-      <c r="S45" s="18" t="s">
-        <v>67</v>
+      <c r="S45" s="17" t="s">
+        <v>66</v>
       </c>
       <c r="T45" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V45" s="4" t="s">
         <v>27</v>
@@ -4436,56 +4439,56 @@
       </c>
     </row>
     <row r="46" spans="2:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="44">
+      <c r="B46" s="151">
         <v>4</v>
       </c>
-      <c r="C46" s="43">
+      <c r="C46" s="41">
         <v>4</v>
       </c>
-      <c r="D46" s="96">
+      <c r="D46" s="90">
         <v>7</v>
       </c>
-      <c r="E46" s="42" t="s">
+      <c r="E46" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="F46" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="G46" s="40">
+      <c r="F46" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="G46" s="38">
         <v>95</v>
       </c>
-      <c r="H46" s="39">
+      <c r="H46" s="37">
         <v>1</v>
       </c>
       <c r="I46" s="11"/>
-      <c r="J46" s="79">
+      <c r="J46" s="73">
         <v>51</v>
       </c>
-      <c r="K46" s="38">
+      <c r="K46" s="36">
         <v>0</v>
       </c>
-      <c r="L46" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="M46" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="N46" s="35">
+      <c r="L46" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="M46" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="N46" s="33">
         <v>51</v>
       </c>
-      <c r="Q46" s="34" t="s">
+      <c r="Q46" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="R46" s="33">
+      <c r="R46" s="31">
         <v>25.5</v>
       </c>
-      <c r="S46" s="32" t="s">
-        <v>67</v>
+      <c r="S46" s="30" t="s">
+        <v>66</v>
       </c>
       <c r="T46" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="U46" s="31">
+        <v>71</v>
+      </c>
+      <c r="U46" s="29">
         <v>2.5</v>
       </c>
       <c r="V46" s="4" t="s">
@@ -4499,52 +4502,52 @@
       </c>
     </row>
     <row r="47" spans="2:27" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="30"/>
-      <c r="C47" s="29">
+      <c r="B47" s="152"/>
+      <c r="C47" s="28">
         <v>4</v>
       </c>
-      <c r="D47" s="95">
+      <c r="D47" s="89">
         <v>7</v>
       </c>
-      <c r="E47" s="28" t="s">
+      <c r="E47" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="F47" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="G47" s="26">
+      <c r="F47" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G47" s="25">
         <v>53</v>
       </c>
-      <c r="H47" s="25">
+      <c r="H47" s="24">
         <v>1</v>
       </c>
       <c r="I47" s="11"/>
-      <c r="J47" s="78">
+      <c r="J47" s="72">
         <v>51</v>
       </c>
-      <c r="K47" s="24">
+      <c r="K47" s="23">
         <v>0</v>
       </c>
-      <c r="L47" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="M47" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="N47" s="21">
+      <c r="L47" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="M47" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="N47" s="20">
         <v>51</v>
       </c>
-      <c r="Q47" s="20" t="s">
+      <c r="Q47" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="R47" s="19">
+      <c r="R47" s="18">
         <v>25.5</v>
       </c>
-      <c r="S47" s="18" t="s">
-        <v>67</v>
+      <c r="S47" s="17" t="s">
+        <v>66</v>
       </c>
       <c r="T47" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V47" s="4" t="s">
         <v>27</v>
@@ -4557,18 +4560,18 @@
       </c>
     </row>
     <row r="48" spans="2:27" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="17"/>
+      <c r="B48" s="153"/>
       <c r="C48" s="16">
         <v>4</v>
       </c>
-      <c r="D48" s="94">
+      <c r="D48" s="88">
         <v>7</v>
       </c>
       <c r="E48" s="15" t="s">
         <v>28</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G48" s="13">
         <v>115</v>
@@ -4577,32 +4580,32 @@
         <v>0.5</v>
       </c>
       <c r="I48" s="11"/>
-      <c r="J48" s="77">
+      <c r="J48" s="71">
         <v>51</v>
       </c>
       <c r="K48" s="10">
         <v>0</v>
       </c>
       <c r="L48" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M48" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N48" s="7">
         <v>51</v>
       </c>
-      <c r="Q48" s="34" t="s">
+      <c r="Q48" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="R48" s="33">
+      <c r="R48" s="31">
         <v>25.5</v>
       </c>
-      <c r="S48" s="32" t="s">
-        <v>67</v>
+      <c r="S48" s="30" t="s">
+        <v>66</v>
       </c>
       <c r="T48" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V48" s="4" t="s">
         <v>27</v>
@@ -4615,54 +4618,54 @@
       </c>
     </row>
     <row r="49" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="84"/>
-      <c r="C49" s="84"/>
-      <c r="D49" s="84"/>
-      <c r="E49" s="82"/>
-      <c r="F49" s="83"/>
-      <c r="G49" s="74"/>
-      <c r="H49" s="73"/>
-      <c r="I49" s="71"/>
-      <c r="J49" s="83"/>
-      <c r="K49" s="82"/>
-      <c r="L49" s="82"/>
-      <c r="M49" s="82"/>
-      <c r="N49" s="82"/>
-      <c r="O49" s="81"/>
-      <c r="P49" s="80"/>
-      <c r="Q49" s="80"/>
-      <c r="R49" s="80"/>
-      <c r="S49" s="80"/>
+      <c r="B49" s="78"/>
+      <c r="C49" s="78"/>
+      <c r="D49" s="78"/>
+      <c r="E49" s="76"/>
+      <c r="F49" s="77"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="67"/>
+      <c r="I49" s="65"/>
+      <c r="J49" s="77"/>
+      <c r="K49" s="76"/>
+      <c r="L49" s="76"/>
+      <c r="M49" s="76"/>
+      <c r="N49" s="76"/>
+      <c r="O49" s="75"/>
+      <c r="P49" s="74"/>
+      <c r="Q49" s="74"/>
+      <c r="R49" s="74"/>
+      <c r="S49" s="74"/>
       <c r="T49" s="5"/>
       <c r="W49" s="4"/>
       <c r="Y49" s="3"/>
     </row>
     <row r="50" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="80"/>
-      <c r="B50" s="68" t="s">
+      <c r="A50" s="74"/>
+      <c r="B50" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C50" s="67"/>
-      <c r="D50" s="67"/>
-      <c r="E50" s="65"/>
-      <c r="F50" s="66" t="s">
+      <c r="C50" s="61"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="G50" s="65"/>
-      <c r="H50" s="64" t="s">
+      <c r="G50" s="59"/>
+      <c r="H50" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="I50" s="63"/>
-      <c r="J50" s="62"/>
-      <c r="K50" s="62"/>
-      <c r="L50" s="62"/>
-      <c r="M50" s="62"/>
-      <c r="N50" s="61"/>
-      <c r="O50" s="54"/>
-      <c r="P50" s="53"/>
-      <c r="Q50" s="60"/>
-      <c r="R50" s="59"/>
-      <c r="S50" s="58"/>
+      <c r="I50" s="57"/>
+      <c r="J50" s="56"/>
+      <c r="K50" s="56"/>
+      <c r="L50" s="56"/>
+      <c r="M50" s="56"/>
+      <c r="N50" s="55"/>
+      <c r="O50" s="51"/>
+      <c r="P50" s="50"/>
+      <c r="Q50" s="145"/>
+      <c r="R50" s="146"/>
+      <c r="S50" s="147"/>
       <c r="T50" s="5">
         <v>4</v>
       </c>
@@ -4670,71 +4673,71 @@
       <c r="Y50" s="3"/>
     </row>
     <row r="51" spans="1:25" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="80"/>
-      <c r="B51" s="56" t="s">
+      <c r="A51" s="74"/>
+      <c r="B51" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="104"/>
-      <c r="D51" s="104"/>
-      <c r="E51" s="57" t="s">
+      <c r="C51" s="95"/>
+      <c r="D51" s="95"/>
+      <c r="E51" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="F51" s="55" t="s">
+      <c r="F51" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="G51" s="55" t="s">
+      <c r="G51" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H51" s="103" t="s">
+      <c r="H51" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="I51" s="52"/>
-      <c r="J51" s="102" t="s">
+      <c r="I51" s="49"/>
+      <c r="J51" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="K51" s="101" t="s">
-        <v>66</v>
-      </c>
-      <c r="L51" s="101" t="s">
-        <v>67</v>
-      </c>
-      <c r="M51" s="101" t="s">
-        <v>67</v>
-      </c>
-      <c r="N51" s="100" t="s">
+      <c r="K51" s="92" t="s">
+        <v>65</v>
+      </c>
+      <c r="L51" s="92" t="s">
+        <v>66</v>
+      </c>
+      <c r="M51" s="92" t="s">
+        <v>66</v>
+      </c>
+      <c r="N51" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="Q51" s="99" t="s">
+      <c r="Q51" s="148" t="s">
         <v>3</v>
       </c>
-      <c r="R51" s="98"/>
-      <c r="S51" s="97"/>
+      <c r="R51" s="149"/>
+      <c r="S51" s="150"/>
       <c r="T51" s="5"/>
       <c r="W51" s="4"/>
       <c r="Y51" s="3"/>
     </row>
     <row r="52" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="80"/>
-      <c r="B52" s="92"/>
-      <c r="C52" s="91"/>
-      <c r="D52" s="91"/>
-      <c r="E52" s="90"/>
-      <c r="F52" s="89"/>
-      <c r="G52" s="89"/>
-      <c r="H52" s="88"/>
-      <c r="I52" s="52"/>
-      <c r="J52" s="51"/>
-      <c r="K52" s="50"/>
-      <c r="L52" s="49"/>
-      <c r="M52" s="49"/>
-      <c r="N52" s="48"/>
-      <c r="Q52" s="87" t="s">
+      <c r="A52" s="74"/>
+      <c r="B52" s="86"/>
+      <c r="C52" s="85"/>
+      <c r="D52" s="85"/>
+      <c r="E52" s="84"/>
+      <c r="F52" s="83"/>
+      <c r="G52" s="83"/>
+      <c r="H52" s="82"/>
+      <c r="I52" s="49"/>
+      <c r="J52" s="48"/>
+      <c r="K52" s="47"/>
+      <c r="L52" s="46"/>
+      <c r="M52" s="46"/>
+      <c r="N52" s="45"/>
+      <c r="Q52" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="R52" s="86" t="s">
+      <c r="R52" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="S52" s="85" t="s">
+      <c r="S52" s="79" t="s">
         <v>0</v>
       </c>
       <c r="T52" s="5"/>
@@ -4742,57 +4745,57 @@
       <c r="Y52" s="3"/>
     </row>
     <row r="53" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="80"/>
-      <c r="B53" s="44">
+      <c r="A53" s="74"/>
+      <c r="B53" s="151">
         <v>1</v>
       </c>
-      <c r="C53" s="43">
+      <c r="C53" s="41">
         <v>1</v>
       </c>
-      <c r="D53" s="96">
+      <c r="D53" s="90">
         <v>0</v>
       </c>
-      <c r="E53" s="42" t="s">
+      <c r="E53" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="F53" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="G53" s="40">
+      <c r="F53" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="G53" s="38">
         <v>10</v>
       </c>
-      <c r="H53" s="39">
+      <c r="H53" s="37">
         <v>7.5</v>
       </c>
       <c r="I53" s="11"/>
-      <c r="J53" s="79" t="s">
-        <v>67</v>
-      </c>
-      <c r="K53" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="L53" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="M53" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="N53" s="35">
+      <c r="J53" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="K53" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="L53" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="M53" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="N53" s="33">
         <v>0</v>
       </c>
-      <c r="Q53" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="R53" s="46">
+      <c r="Q53" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="R53" s="43">
         <v>0</v>
       </c>
-      <c r="S53" s="45" t="s">
-        <v>67</v>
+      <c r="S53" s="42" t="s">
+        <v>66</v>
       </c>
       <c r="T53" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="U53" s="31">
+        <v>66</v>
+      </c>
+      <c r="U53" s="29">
         <v>17.5</v>
       </c>
       <c r="V53" s="4" t="s">
@@ -4806,53 +4809,53 @@
       </c>
     </row>
     <row r="54" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="80"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="29">
+      <c r="A54" s="74"/>
+      <c r="B54" s="152"/>
+      <c r="C54" s="28">
         <v>1</v>
       </c>
-      <c r="D54" s="95">
+      <c r="D54" s="89">
         <v>0</v>
       </c>
-      <c r="E54" s="28" t="s">
+      <c r="E54" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F54" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="G54" s="26">
+      <c r="F54" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G54" s="25">
         <v>6</v>
       </c>
-      <c r="H54" s="25">
+      <c r="H54" s="24">
         <v>7.5</v>
       </c>
       <c r="I54" s="11"/>
-      <c r="J54" s="78" t="s">
-        <v>67</v>
-      </c>
-      <c r="K54" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="L54" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="M54" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="N54" s="21">
+      <c r="J54" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="K54" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="L54" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="M54" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="N54" s="20">
         <v>0</v>
       </c>
-      <c r="Q54" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="R54" s="33">
+      <c r="Q54" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="R54" s="31">
         <v>0</v>
       </c>
-      <c r="S54" s="32" t="s">
-        <v>67</v>
+      <c r="S54" s="30" t="s">
+        <v>66</v>
       </c>
       <c r="T54" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V54" s="4" t="s">
         <v>27</v>
@@ -4865,19 +4868,19 @@
       </c>
     </row>
     <row r="55" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="80"/>
-      <c r="B55" s="17"/>
+      <c r="A55" s="74"/>
+      <c r="B55" s="153"/>
       <c r="C55" s="16">
         <v>1</v>
       </c>
-      <c r="D55" s="94">
+      <c r="D55" s="88">
         <v>0</v>
       </c>
       <c r="E55" s="15" t="s">
         <v>24</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G55" s="13">
         <v>32</v>
@@ -4886,32 +4889,32 @@
         <v>2.5</v>
       </c>
       <c r="I55" s="11"/>
-      <c r="J55" s="77" t="s">
-        <v>67</v>
+      <c r="J55" s="71" t="s">
+        <v>66</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L55" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N55" s="7">
         <v>0</v>
       </c>
-      <c r="Q55" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="R55" s="19">
+      <c r="Q55" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="R55" s="18">
         <v>0</v>
       </c>
-      <c r="S55" s="18" t="s">
-        <v>67</v>
+      <c r="S55" s="17" t="s">
+        <v>66</v>
       </c>
       <c r="T55" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V55" s="4" t="s">
         <v>27</v>
@@ -4924,57 +4927,57 @@
       </c>
     </row>
     <row r="56" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="80"/>
-      <c r="B56" s="44">
+      <c r="A56" s="74"/>
+      <c r="B56" s="151">
         <v>2</v>
       </c>
-      <c r="C56" s="43">
+      <c r="C56" s="41">
         <v>2</v>
       </c>
-      <c r="D56" s="96">
+      <c r="D56" s="90">
         <v>0</v>
       </c>
-      <c r="E56" s="42" t="s">
+      <c r="E56" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="F56" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="G56" s="40">
+      <c r="F56" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="G56" s="38">
         <v>27</v>
       </c>
-      <c r="H56" s="39">
+      <c r="H56" s="37">
         <v>2.5</v>
       </c>
       <c r="I56" s="11"/>
-      <c r="J56" s="79" t="s">
-        <v>67</v>
-      </c>
-      <c r="K56" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="L56" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="M56" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="N56" s="35">
+      <c r="J56" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="K56" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="L56" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="M56" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="N56" s="33">
         <v>0</v>
       </c>
-      <c r="Q56" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="R56" s="33">
+      <c r="Q56" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="R56" s="31">
         <v>0</v>
       </c>
-      <c r="S56" s="32" t="s">
-        <v>67</v>
+      <c r="S56" s="30" t="s">
+        <v>66</v>
       </c>
       <c r="T56" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="U56" s="31">
+        <v>66</v>
+      </c>
+      <c r="U56" s="29">
         <v>12.5</v>
       </c>
       <c r="V56" s="4" t="s">
@@ -4988,53 +4991,53 @@
       </c>
     </row>
     <row r="57" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="80"/>
-      <c r="B57" s="30"/>
-      <c r="C57" s="29">
+      <c r="A57" s="74"/>
+      <c r="B57" s="152"/>
+      <c r="C57" s="28">
         <v>2</v>
       </c>
-      <c r="D57" s="95">
+      <c r="D57" s="89">
         <v>0</v>
       </c>
-      <c r="E57" s="28" t="s">
+      <c r="E57" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F57" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="G57" s="26">
+      <c r="F57" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G57" s="25">
         <v>8</v>
       </c>
-      <c r="H57" s="25">
+      <c r="H57" s="24">
         <v>7.5</v>
       </c>
       <c r="I57" s="11"/>
-      <c r="J57" s="78" t="s">
-        <v>67</v>
-      </c>
-      <c r="K57" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="L57" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="M57" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="N57" s="21">
+      <c r="J57" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="K57" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="L57" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="M57" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="N57" s="20">
         <v>0</v>
       </c>
-      <c r="Q57" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="R57" s="19">
+      <c r="Q57" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="R57" s="18">
         <v>0</v>
       </c>
-      <c r="S57" s="18" t="s">
-        <v>67</v>
+      <c r="S57" s="17" t="s">
+        <v>66</v>
       </c>
       <c r="T57" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V57" s="4" t="s">
         <v>27</v>
@@ -5047,19 +5050,19 @@
       </c>
     </row>
     <row r="58" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="80"/>
-      <c r="B58" s="17"/>
+      <c r="A58" s="74"/>
+      <c r="B58" s="153"/>
       <c r="C58" s="16">
         <v>2</v>
       </c>
-      <c r="D58" s="94">
+      <c r="D58" s="88">
         <v>0</v>
       </c>
       <c r="E58" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G58" s="13">
         <v>28</v>
@@ -5068,32 +5071,32 @@
         <v>2.5</v>
       </c>
       <c r="I58" s="11"/>
-      <c r="J58" s="77" t="s">
-        <v>67</v>
+      <c r="J58" s="71" t="s">
+        <v>66</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L58" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M58" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N58" s="7">
         <v>0</v>
       </c>
-      <c r="Q58" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="R58" s="33">
+      <c r="Q58" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="R58" s="31">
         <v>0</v>
       </c>
-      <c r="S58" s="32" t="s">
-        <v>67</v>
+      <c r="S58" s="30" t="s">
+        <v>66</v>
       </c>
       <c r="T58" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V58" s="4" t="s">
         <v>27</v>
@@ -5106,57 +5109,57 @@
       </c>
     </row>
     <row r="59" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="80"/>
-      <c r="B59" s="44">
+      <c r="A59" s="74"/>
+      <c r="B59" s="151">
         <v>3</v>
       </c>
-      <c r="C59" s="43">
+      <c r="C59" s="41">
         <v>3</v>
       </c>
-      <c r="D59" s="96">
+      <c r="D59" s="90">
         <v>5</v>
       </c>
-      <c r="E59" s="42" t="s">
+      <c r="E59" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F59" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="G59" s="40">
+      <c r="F59" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="G59" s="38">
         <v>146</v>
       </c>
-      <c r="H59" s="39">
+      <c r="H59" s="37">
         <v>0.5</v>
       </c>
       <c r="I59" s="11"/>
-      <c r="J59" s="79">
-        <v>66</v>
-      </c>
-      <c r="K59" s="38">
+      <c r="J59" s="73">
+        <v>66</v>
+      </c>
+      <c r="K59" s="36">
         <v>2</v>
       </c>
-      <c r="L59" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="M59" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="N59" s="35">
+      <c r="L59" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="M59" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="N59" s="33">
         <v>68</v>
       </c>
-      <c r="Q59" s="20" t="s">
+      <c r="Q59" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="R59" s="19">
+      <c r="R59" s="18">
         <v>34</v>
       </c>
-      <c r="S59" s="18" t="s">
-        <v>67</v>
+      <c r="S59" s="17" t="s">
+        <v>66</v>
       </c>
       <c r="T59" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="U59" s="31">
+        <v>71</v>
+      </c>
+      <c r="U59" s="29">
         <v>3.5</v>
       </c>
       <c r="V59" s="4" t="s">
@@ -5170,53 +5173,53 @@
       </c>
     </row>
     <row r="60" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="80"/>
-      <c r="B60" s="30"/>
-      <c r="C60" s="29">
+      <c r="A60" s="74"/>
+      <c r="B60" s="152"/>
+      <c r="C60" s="28">
         <v>3</v>
       </c>
-      <c r="D60" s="95">
+      <c r="D60" s="89">
         <v>5</v>
       </c>
-      <c r="E60" s="28" t="s">
+      <c r="E60" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="F60" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="G60" s="26">
+      <c r="F60" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G60" s="25">
         <v>107</v>
       </c>
-      <c r="H60" s="25">
+      <c r="H60" s="24">
         <v>0.5</v>
       </c>
       <c r="I60" s="11"/>
-      <c r="J60" s="78">
-        <v>66</v>
-      </c>
-      <c r="K60" s="24">
+      <c r="J60" s="72">
+        <v>66</v>
+      </c>
+      <c r="K60" s="23">
         <v>2</v>
       </c>
-      <c r="L60" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="M60" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="N60" s="21">
+      <c r="L60" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="M60" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="N60" s="20">
         <v>68</v>
       </c>
-      <c r="Q60" s="34" t="s">
+      <c r="Q60" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="R60" s="33">
+      <c r="R60" s="31">
         <v>34</v>
       </c>
-      <c r="S60" s="32" t="s">
-        <v>67</v>
+      <c r="S60" s="30" t="s">
+        <v>66</v>
       </c>
       <c r="T60" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V60" s="4" t="s">
         <v>27</v>
@@ -5229,19 +5232,19 @@
       </c>
     </row>
     <row r="61" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="80"/>
-      <c r="B61" s="17"/>
+      <c r="A61" s="74"/>
+      <c r="B61" s="153"/>
       <c r="C61" s="16">
         <v>3</v>
       </c>
-      <c r="D61" s="94">
+      <c r="D61" s="88">
         <v>5</v>
       </c>
       <c r="E61" s="15" t="s">
         <v>18</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G61" s="13">
         <v>44</v>
@@ -5250,32 +5253,32 @@
         <v>2.5</v>
       </c>
       <c r="I61" s="11"/>
-      <c r="J61" s="77">
+      <c r="J61" s="71">
         <v>66</v>
       </c>
       <c r="K61" s="10">
         <v>2</v>
       </c>
       <c r="L61" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M61" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N61" s="7">
         <v>68</v>
       </c>
-      <c r="Q61" s="20" t="s">
+      <c r="Q61" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="R61" s="19">
+      <c r="R61" s="18">
         <v>34</v>
       </c>
-      <c r="S61" s="18" t="s">
-        <v>67</v>
+      <c r="S61" s="17" t="s">
+        <v>66</v>
       </c>
       <c r="T61" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V61" s="4" t="s">
         <v>27</v>
@@ -5288,57 +5291,57 @@
       </c>
     </row>
     <row r="62" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="80"/>
-      <c r="B62" s="44">
+      <c r="A62" s="74"/>
+      <c r="B62" s="151">
         <v>4</v>
       </c>
-      <c r="C62" s="43">
+      <c r="C62" s="41">
         <v>4</v>
       </c>
-      <c r="D62" s="96">
+      <c r="D62" s="90">
         <v>7</v>
       </c>
-      <c r="E62" s="42" t="s">
+      <c r="E62" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F62" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="G62" s="40">
+      <c r="F62" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="G62" s="38">
         <v>102</v>
       </c>
-      <c r="H62" s="39">
+      <c r="H62" s="37">
         <v>0.5</v>
       </c>
       <c r="I62" s="11"/>
-      <c r="J62" s="79">
+      <c r="J62" s="73">
         <v>51</v>
       </c>
-      <c r="K62" s="38">
+      <c r="K62" s="36">
         <v>0</v>
       </c>
-      <c r="L62" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="M62" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="N62" s="35">
+      <c r="L62" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="M62" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="N62" s="33">
         <v>51</v>
       </c>
-      <c r="Q62" s="34" t="s">
+      <c r="Q62" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="R62" s="33">
+      <c r="R62" s="31">
         <v>25.5</v>
       </c>
-      <c r="S62" s="32" t="s">
-        <v>67</v>
+      <c r="S62" s="30" t="s">
+        <v>66</v>
       </c>
       <c r="T62" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="U62" s="31">
+        <v>73</v>
+      </c>
+      <c r="U62" s="29">
         <v>2</v>
       </c>
       <c r="V62" s="4" t="s">
@@ -5352,53 +5355,53 @@
       </c>
     </row>
     <row r="63" spans="1:25" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="80"/>
-      <c r="B63" s="30"/>
-      <c r="C63" s="29">
+      <c r="A63" s="74"/>
+      <c r="B63" s="152"/>
+      <c r="C63" s="28">
         <v>4</v>
       </c>
-      <c r="D63" s="95">
+      <c r="D63" s="89">
         <v>7</v>
       </c>
-      <c r="E63" s="28" t="s">
+      <c r="E63" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F63" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="G63" s="26">
+      <c r="F63" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="G63" s="25">
         <v>112</v>
       </c>
-      <c r="H63" s="25">
+      <c r="H63" s="24">
         <v>0.5</v>
       </c>
       <c r="I63" s="11"/>
-      <c r="J63" s="78">
+      <c r="J63" s="72">
         <v>51</v>
       </c>
-      <c r="K63" s="24">
+      <c r="K63" s="23">
         <v>0</v>
       </c>
-      <c r="L63" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="M63" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="N63" s="21">
+      <c r="L63" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="M63" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="N63" s="20">
         <v>51</v>
       </c>
-      <c r="Q63" s="20" t="s">
+      <c r="Q63" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="R63" s="19">
+      <c r="R63" s="18">
         <v>25.5</v>
       </c>
-      <c r="S63" s="18" t="s">
-        <v>67</v>
+      <c r="S63" s="17" t="s">
+        <v>66</v>
       </c>
       <c r="T63" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V63" s="4" t="s">
         <v>27</v>
@@ -5411,19 +5414,19 @@
       </c>
     </row>
     <row r="64" spans="1:25" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="80"/>
-      <c r="B64" s="17"/>
+      <c r="A64" s="74"/>
+      <c r="B64" s="153"/>
       <c r="C64" s="16">
         <v>4</v>
       </c>
-      <c r="D64" s="94">
+      <c r="D64" s="88">
         <v>7</v>
       </c>
       <c r="E64" s="15" t="s">
         <v>15</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G64" s="13">
         <v>87</v>
@@ -5432,32 +5435,32 @@
         <v>1</v>
       </c>
       <c r="I64" s="11"/>
-      <c r="J64" s="77">
+      <c r="J64" s="71">
         <v>51</v>
       </c>
       <c r="K64" s="10">
         <v>0</v>
       </c>
       <c r="L64" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M64" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N64" s="7">
         <v>51</v>
       </c>
-      <c r="Q64" s="34" t="s">
+      <c r="Q64" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="R64" s="33">
+      <c r="R64" s="31">
         <v>25.5</v>
       </c>
-      <c r="S64" s="32" t="s">
-        <v>67</v>
+      <c r="S64" s="30" t="s">
+        <v>66</v>
       </c>
       <c r="T64" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V64" s="4" t="s">
         <v>27</v>
@@ -5471,27 +5474,20 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="I11:M11"/>
-    <mergeCell ref="I12:M12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="I13:M13"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="Q50:S50"/>
+    <mergeCell ref="Q51:S51"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="L32:L35"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="F32:F35"/>
     <mergeCell ref="Q31:S31"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="G32:G35"/>
@@ -5501,20 +5497,27 @@
     <mergeCell ref="M32:M35"/>
     <mergeCell ref="N32:N35"/>
     <mergeCell ref="Q32:S35"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="L32:L35"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="Q50:S50"/>
-    <mergeCell ref="Q51:S51"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="I12:M12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="I6:M6"/>
   </mergeCells>
   <conditionalFormatting sqref="Q18:S29 Q37:S48 Q53:S64">
     <cfRule type="expression" dxfId="0" priority="5">
@@ -5522,32 +5525,32 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="H15">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="H15" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Pools</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showDropDown="1" sqref="F15">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" sqref="F15" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Rounds</formula1>
     </dataValidation>
-    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="New Player or Error" error="This Player is not in the Rankings or you just made an typing error. Please correct your error, or add the player to the rankings list!" sqref="E53:E64 E18:E29 E37:E48">
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="New Player or Error" error="This Player is not in the Rankings or you just made an typing error. Please correct your error, or add the player to the rankings list!" sqref="E53:E64 E18:E29 E37:E48" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>players_sorted2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B50 B15 B31">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B50 B15 B31" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>All_Divisions</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I31:I34 H31 H50:I50 I15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I31:I34 H31 H50:I50 I15" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>Pools</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" sqref="F31 F50"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:M10">
+    <dataValidation allowBlank="1" sqref="F31 F50" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:M10" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>Other_Divisions</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:M9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:M9" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>Women_Divisions</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8:M8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8:M8" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>Open_Divisions</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Choose Category" sqref="I7:M7">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Choose Category" sqref="I7:M7" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>Categories</formula1>
     </dataValidation>
   </dataValidations>
